--- a/Directory.xlsx
+++ b/Directory.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilywilliamson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilywilliamson/Desktop/Brutchey Lab/TEM Pipeline/Official Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EF0D26-916A-CD42-B02D-73798576C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513C5A20-A985-2347-AE38-0F39AA07A14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1720" windowWidth="27640" windowHeight="15740" xr2:uid="{2E1351DD-3689-3542-A4CA-D57CEBE04753}"/>
+    <workbookView xWindow="40" yWindow="1880" windowWidth="28800" windowHeight="16240" xr2:uid="{161F1905-2EE5-3741-A4C4-2FDEDE17B366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="256">
   <si>
     <t>Name</t>
   </si>
@@ -42,114 +42,773 @@
     <t>Relative Path</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>File Types</t>
+  </si>
+  <si>
+    <t>Data Start Number</t>
+  </si>
+  <si>
+    <t>Data End Number</t>
+  </si>
+  <si>
+    <t>Exception List</t>
+  </si>
+  <si>
     <t>File Name Scheme</t>
   </si>
   <si>
-    <t>File Types</t>
-  </si>
-  <si>
-    <t>Data Start Number</t>
-  </si>
-  <si>
-    <t>Data End Number</t>
-  </si>
-  <si>
-    <t>Exception List</t>
-  </si>
-  <si>
     <t>Number Format</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>DESCRIPTORS + FORMATTING</t>
   </si>
   <si>
+    <t>.tif</t>
+  </si>
+  <si>
+    <t>%04d'</t>
+  </si>
+  <si>
+    <t>1.16.20 79</t>
+  </si>
+  <si>
+    <t>EW-01-79_</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>1.30.20 80</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>1.30.20 81</t>
+  </si>
+  <si>
+    <t>7.23.20 5</t>
+  </si>
+  <si>
+    <t>.tif, .dm3</t>
+  </si>
+  <si>
+    <t>EW-02-5_</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/1.16.20/</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/1.30.20/EW-01-80/</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/1.30.20/EW-01-81/</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/7.23.20/EW-02-5/</t>
+  </si>
+  <si>
+    <t>EW-01-81_</t>
+  </si>
+  <si>
+    <t>EW01-80_</t>
+  </si>
+  <si>
     <t>Make sure you include the backslashes</t>
   </si>
   <si>
     <t>Underscores are important</t>
   </si>
   <si>
-    <r>
-      <t>If multiple, list with commas separating (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i.e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .tif, .dm3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This is standard matlab formatting to have four decimal places displayed (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">i.e. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'%04d' =</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0001)</t>
-    </r>
+    <t>If multiple, list with commas separating</t>
+  </si>
+  <si>
+    <t>This is standard matlab formatting to have four decimal places displayed (i.e. 0001)</t>
+  </si>
+  <si>
+    <t>CsPbBr3 51</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/PC_51/</t>
+  </si>
+  <si>
+    <t>.jpg, .dm3</t>
+  </si>
+  <si>
+    <t>%01d'</t>
+  </si>
+  <si>
+    <t>CsPbBr3 LK52</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/LK-03-52-2/</t>
+  </si>
+  <si>
+    <t>LK-03-52-2_</t>
+  </si>
+  <si>
+    <t>'%04d'</t>
+  </si>
+  <si>
+    <t>CsPbBr3 LARP</t>
+  </si>
+  <si>
+    <t>SRS-05-01_</t>
+  </si>
+  <si>
+    <t>LK-03-52-3_</t>
+  </si>
+  <si>
+    <t>CsPbBr3 Hot Injection 1</t>
+  </si>
+  <si>
+    <t>CsPbBr3 Hot Injection 2</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/Hot_injection/batch_1/</t>
+  </si>
+  <si>
+    <t>CsPbBr3 Hot Injection 3</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/Hot_injection/batch_3/</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/Hot_injection/batch_2/</t>
+  </si>
+  <si>
+    <t>CsPbBr3 Hot Injection 4</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/Hot_injection/batch_4/</t>
+  </si>
+  <si>
+    <t>csPbBr3 hot injection</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/Hot_injection/</t>
+  </si>
+  <si>
+    <t>CoNi2S4 irreg</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/02.28.20/EW-01-84/</t>
+  </si>
+  <si>
+    <t>EW-01-84_</t>
+  </si>
+  <si>
+    <t>1,7,8,15</t>
+  </si>
+  <si>
+    <t>CoNi2S4 small</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/02.28.20/Ew-01-86/</t>
+  </si>
+  <si>
+    <t>EW-01-86_</t>
+  </si>
+  <si>
+    <t>CoNi2S4 optimized</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/8.20.20/EW-02-18/</t>
+  </si>
+  <si>
+    <t>EW-02-18_</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>1,6,8,12,15</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/8.8.20/EW-02-11/</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/8.8.20/EW-02-15/</t>
+  </si>
+  <si>
+    <t>EW-02-15_</t>
+  </si>
+  <si>
+    <t>EW-02-11_</t>
+  </si>
+  <si>
+    <t>4,5,6,8,9,10,11,14,15,19</t>
+  </si>
+  <si>
+    <t>3,5,7,8,9,10,13,14</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/8.20.20/CoNi2S4_optimized/</t>
+  </si>
+  <si>
+    <t>EW-02-op_</t>
+  </si>
+  <si>
+    <t>5,7,8,10,11,17,18,19,24</t>
+  </si>
+  <si>
+    <t>3,5,6,7,11,12,13,14,16,17,18,19,20,21,23,25,27,28,29,32,51,52,53,54,55,56,57,58,59,62</t>
+  </si>
+  <si>
+    <t>CsPbBr3 Lanj</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/LK-01-95-3h/</t>
+  </si>
+  <si>
+    <t>LK-01-95-3h_</t>
+  </si>
+  <si>
+    <t>1,2,3,5,7,10,14,15,16</t>
+  </si>
+  <si>
+    <t>1,6,7,9,11,13,14,15,18</t>
+  </si>
+  <si>
+    <t>Ni2P 30m</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/Ni2P TEM/30 m/</t>
+  </si>
+  <si>
+    <t>50x.</t>
+  </si>
+  <si>
+    <t>Ni-S</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/Ni-S TEM/</t>
+  </si>
+  <si>
+    <t>GB06-040_</t>
+  </si>
+  <si>
+    <t>Ni-S Test</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/Ni-S TEM/Test/</t>
+  </si>
+  <si>
+    <t>GB06-041_</t>
+  </si>
+  <si>
+    <t>Ni-S Test equiv.exps</t>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,26,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification </t>
+  </si>
+  <si>
+    <t>/EMILY TEM/Classification/</t>
+  </si>
+  <si>
+    <t>ctraining_</t>
+  </si>
+  <si>
+    <t>50, 51,52,53,54,55,56,57,58,60,61,62,100,140</t>
+  </si>
+  <si>
+    <t>full_pipeline_test</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/</t>
+  </si>
+  <si>
+    <t>EW-1A_</t>
+  </si>
+  <si>
+    <t>/EMILY TEM/CsPbBr3 pics/09232021/LARP/</t>
+  </si>
+  <si>
+    <t>53,54,57,58,59,63,64</t>
+  </si>
+  <si>
+    <t>CsPbBr3 HI new</t>
+  </si>
+  <si>
+    <t>3,4,10,12,13,16,18,20,21,22,24,25,26</t>
+  </si>
+  <si>
+    <t>3,4,10,12,13,16,18,20,21,22,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44, 45,46,47,48,49,51,53,54,57,58,59,63,64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsPbBr3 HI </t>
+  </si>
+  <si>
+    <t>3,4,10,12,13,16,18,20,21,22,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44, 45,46,47,48,49,50,51,53,54,57,58,59,63,64</t>
+  </si>
+  <si>
+    <t>Ni3S2</t>
+  </si>
+  <si>
+    <t>GB06-034_10min_</t>
+  </si>
+  <si>
+    <t>CoO</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/</t>
+  </si>
+  <si>
+    <t>LK-04_</t>
+  </si>
+  <si>
+    <t>10,96,103,104,105,106,107,108,111,114,117,118,121,123,124,128,191,200,219</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00001/</t>
+  </si>
+  <si>
+    <t>CoO cubic phase pure</t>
+  </si>
+  <si>
+    <t>CoO wurtzite phase pure</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00003/</t>
+  </si>
+  <si>
+    <t>phase pure CoO</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/phase pure/</t>
+  </si>
+  <si>
+    <t>.tiff</t>
+  </si>
+  <si>
+    <t>phasepure_</t>
+  </si>
+  <si>
+    <t>7,8,9,10,19,21,23,24,25,26,27,30,33,34,35,37,38,41,47,48,49,50,51,52,55,101,102,102,104,105,106,110,111</t>
+  </si>
+  <si>
+    <t>7,8,9,10,19,21,23,24,25,26,27,30,33,34,35,37,38,41,47,48,49,50,51,52,53,56,</t>
+  </si>
+  <si>
+    <t>102, 103, 104, 105, 106, 111, 112</t>
+  </si>
+  <si>
+    <t>LK-04-42</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00002/LK-04-42/</t>
+  </si>
+  <si>
+    <t>LK-04-59</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00002/LK-04-59/</t>
+  </si>
+  <si>
+    <t>LK-04-63</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00002/LK-04-63/</t>
+  </si>
+  <si>
+    <t>LK-04-71</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00002/LK-04-71/</t>
+  </si>
+  <si>
+    <t>LK-04-75rep</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00002/LK-04-75_replicate/</t>
+  </si>
+  <si>
+    <t>LK-04-65</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00004/LK-04-65/</t>
+  </si>
+  <si>
+    <t>LK-04-56</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00005/LK-04-56/</t>
+  </si>
+  <si>
+    <t>LK-04-68</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00005/LK-04-68/</t>
+  </si>
+  <si>
+    <t>LK-04-62</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00006/LK-04-62/</t>
+  </si>
+  <si>
+    <t>LK-04-66</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/LK-04_00007/LK-04-66/</t>
+  </si>
+  <si>
+    <t>20,21,22,23</t>
+  </si>
+  <si>
+    <t>nrel</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/NREL/</t>
+  </si>
+  <si>
+    <t>nrel_</t>
+  </si>
+  <si>
+    <t>LK-04-90</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/Doehlert/</t>
+  </si>
+  <si>
+    <t>LK-04-91</t>
+  </si>
+  <si>
+    <t>LK-04-92</t>
+  </si>
+  <si>
+    <t>LK-04-90_</t>
+  </si>
+  <si>
+    <t>LK-04-91_</t>
+  </si>
+  <si>
+    <t>LK-04-92_</t>
+  </si>
+  <si>
+    <t>LK-04-93</t>
+  </si>
+  <si>
+    <t>LK-04-93_</t>
+  </si>
+  <si>
+    <t>LK-04-94</t>
+  </si>
+  <si>
+    <t>LK-04-94_</t>
+  </si>
+  <si>
+    <t>LK-04-95</t>
+  </si>
+  <si>
+    <t>LK-04-95_</t>
+  </si>
+  <si>
+    <t>134, 137</t>
+  </si>
+  <si>
+    <t>291, 293, 298, 302</t>
+  </si>
+  <si>
+    <t>236, 238, 245, 246</t>
+  </si>
+  <si>
+    <t>250, 254, 256,  258,260, 262, 263,  264,265,266,267,278, 284,285</t>
+  </si>
+  <si>
+    <t>6, 26,27,28,55,58</t>
+  </si>
+  <si>
+    <t>LK-04-96</t>
+  </si>
+  <si>
+    <t>LK-04-96_</t>
+  </si>
+  <si>
+    <t>LK-04-97</t>
+  </si>
+  <si>
+    <t>LK-04-97_</t>
+  </si>
+  <si>
+    <t>LK-04-98</t>
+  </si>
+  <si>
+    <t>LK-04-98_</t>
+  </si>
+  <si>
+    <t>LK-04-99</t>
+  </si>
+  <si>
+    <t>LK-04-100</t>
+  </si>
+  <si>
+    <t>LK-04-99_</t>
+  </si>
+  <si>
+    <t>LK-04-100_</t>
+  </si>
+  <si>
+    <t>LK-04-101</t>
+  </si>
+  <si>
+    <t>LK-04-101_</t>
+  </si>
+  <si>
+    <t>LK-04-114</t>
+  </si>
+  <si>
+    <t>/CoO TEMs/Bayesian_rxns/</t>
+  </si>
+  <si>
+    <t>LK-04-114_</t>
+  </si>
+  <si>
+    <t>LK-04-116</t>
+  </si>
+  <si>
+    <t>LK-04-116_</t>
+  </si>
+  <si>
+    <t>LK-05-01</t>
+  </si>
+  <si>
+    <t>LK-05-01_</t>
+  </si>
+  <si>
+    <t>LK-05-05</t>
+  </si>
+  <si>
+    <t>LK-05-05_</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>/mono/</t>
+  </si>
+  <si>
+    <t>Picture_</t>
+  </si>
+  <si>
+    <t>LK-05-06</t>
+  </si>
+  <si>
+    <t>LK-05-07</t>
+  </si>
+  <si>
+    <t>LK-05-07_</t>
+  </si>
+  <si>
+    <t>LK-05-08</t>
+  </si>
+  <si>
+    <t>LK-05-08_</t>
+  </si>
+  <si>
+    <t>LK-05-09</t>
+  </si>
+  <si>
+    <t>LK-05-09_</t>
+  </si>
+  <si>
+    <t>LK-05-10</t>
+  </si>
+  <si>
+    <t>LK-05-10_</t>
+  </si>
+  <si>
+    <t>LK-05-11</t>
+  </si>
+  <si>
+    <t>LK-05-11_</t>
+  </si>
+  <si>
+    <t>LK-05-06_</t>
+  </si>
+  <si>
+    <t>LK-05-12</t>
+  </si>
+  <si>
+    <t>LK-05-13</t>
+  </si>
+  <si>
+    <t>LK-05-14</t>
+  </si>
+  <si>
+    <t>LK-05-15</t>
+  </si>
+  <si>
+    <t>LK-05-16</t>
+  </si>
+  <si>
+    <t>LK-05-17</t>
+  </si>
+  <si>
+    <t>LK-05-18</t>
+  </si>
+  <si>
+    <t>LK-05-19</t>
+  </si>
+  <si>
+    <t>LK-05-12_</t>
+  </si>
+  <si>
+    <t>LK-05-13_</t>
+  </si>
+  <si>
+    <t>LK-05-14_</t>
+  </si>
+  <si>
+    <t>LK-05-15_</t>
+  </si>
+  <si>
+    <t>LK-05-16_</t>
+  </si>
+  <si>
+    <t>LK-05-17_</t>
+  </si>
+  <si>
+    <t>LK-05-18_</t>
+  </si>
+  <si>
+    <t>LK-05-19_</t>
+  </si>
+  <si>
+    <t>66,67</t>
+  </si>
+  <si>
+    <t>38,39,41,42,43,44</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>LK-05-24</t>
+  </si>
+  <si>
+    <t>LK-05-24_</t>
+  </si>
+  <si>
+    <t>LK-05-25</t>
+  </si>
+  <si>
+    <t>LK-05-25_</t>
+  </si>
+  <si>
+    <t>LK-05-30</t>
+  </si>
+  <si>
+    <t>LK-05-30_</t>
+  </si>
+  <si>
+    <t>LK-05-31</t>
+  </si>
+  <si>
+    <t>LK-05-31_</t>
+  </si>
+  <si>
+    <t>LK-05-32</t>
+  </si>
+  <si>
+    <t>LK-05-33</t>
+  </si>
+  <si>
+    <t>LK-05-36</t>
+  </si>
+  <si>
+    <t>LK-05-37</t>
+  </si>
+  <si>
+    <t>LK-05-40</t>
+  </si>
+  <si>
+    <t>LK-05-41</t>
+  </si>
+  <si>
+    <t>91,93,94,95</t>
+  </si>
+  <si>
+    <t>LK-05-26</t>
+  </si>
+  <si>
+    <t>LK-05-36_</t>
+  </si>
+  <si>
+    <t>LK-05-37_</t>
+  </si>
+  <si>
+    <t>LK-05-32_</t>
+  </si>
+  <si>
+    <t>LK-05-33_</t>
+  </si>
+  <si>
+    <t>LK-05-40_</t>
+  </si>
+  <si>
+    <t>LK-05-41_</t>
+  </si>
+  <si>
+    <t>70,71,72,73,77</t>
+  </si>
+  <si>
+    <t>LK-05-44</t>
+  </si>
+  <si>
+    <t>LK-05-45</t>
+  </si>
+  <si>
+    <t>LK-05-47</t>
+  </si>
+  <si>
+    <t>LK-05-44_</t>
+  </si>
+  <si>
+    <t>LK-05-45_</t>
+  </si>
+  <si>
+    <t>LK-05-47_</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>LK-05-50</t>
+  </si>
+  <si>
+    <t>LK-05-51</t>
+  </si>
+  <si>
+    <t>LK-05-50_</t>
+  </si>
+  <si>
+    <t>LK-05-51_</t>
+  </si>
+  <si>
+    <t>LK-05-54</t>
+  </si>
+  <si>
+    <t>LK-05-55</t>
+  </si>
+  <si>
+    <t>LK-05-54_</t>
+  </si>
+  <si>
+    <t>LK-05-55_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,9 +825,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,12 +858,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,75 +1194,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28251DD2-99CA-4348-B6BD-6D5CCAA17E4D}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD4E0F7-FEA9-7C49-8C08-067F930D761D}">
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>58</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F25" s="1">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1">
+        <v>217</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>66</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>245</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="1">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1">
+        <v>116</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1">
+        <v>76</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>18</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>128</v>
+      </c>
+      <c r="F37" s="1">
+        <v>140</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5">
+        <v>37</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5">
+        <v>143</v>
+      </c>
+      <c r="F39" s="5">
+        <v>164</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5">
+        <v>214</v>
+      </c>
+      <c r="F40" s="5">
+        <v>230</v>
+      </c>
+      <c r="G40" s="5">
+        <v>214</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5">
+        <v>231</v>
+      </c>
+      <c r="F41" s="5">
+        <v>249</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5">
+        <v>250</v>
+      </c>
+      <c r="F42" s="5">
+        <v>285</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5">
+        <v>286</v>
+      </c>
+      <c r="F43" s="5">
+        <v>306</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5">
+        <v>316</v>
+      </c>
+      <c r="F44" s="5">
+        <v>323</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>17</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>33</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5">
+        <v>34</v>
+      </c>
+      <c r="F48" s="5">
+        <v>48</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5">
+        <v>49</v>
+      </c>
+      <c r="F49" s="5">
+        <v>60</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5">
+        <v>61</v>
+      </c>
+      <c r="F50" s="5">
+        <v>69</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5">
+        <v>70</v>
+      </c>
+      <c r="F51" s="5">
+        <v>78</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="5">
         <v>13</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="F53" s="5">
+        <v>22</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5">
+        <v>23</v>
+      </c>
+      <c r="F54" s="5">
+        <v>34</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5">
+        <v>35</v>
+      </c>
+      <c r="F55" s="5">
+        <v>42</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="5">
+        <v>43</v>
+      </c>
+      <c r="F56" s="5">
+        <v>50</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
+        <v>51</v>
+      </c>
+      <c r="F57" s="5">
+        <v>60</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1">
+        <v>37</v>
+      </c>
+      <c r="F58" s="1">
+        <v>55</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1">
+        <v>36</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5">
+        <v>17</v>
+      </c>
+      <c r="F60" s="5">
+        <v>22</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>16</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>19</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5">
+        <v>46</v>
+      </c>
+      <c r="F63" s="5">
+        <v>55</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5">
+        <v>35</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="5">
+        <v>24</v>
+      </c>
+      <c r="F65" s="5">
+        <v>34</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5">
+        <v>23</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>11</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5">
+        <v>56</v>
+      </c>
+      <c r="F68" s="5">
+        <v>77</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="5">
+        <v>72</v>
+      </c>
+      <c r="F69" s="5">
+        <v>78</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5">
+        <v>66</v>
+      </c>
+      <c r="F70" s="5">
+        <v>71</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5">
+        <v>56</v>
+      </c>
+      <c r="F71" s="5">
+        <v>65</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5">
+        <v>46</v>
+      </c>
+      <c r="F72" s="5">
+        <v>55</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="5">
+        <v>38</v>
+      </c>
+      <c r="F73" s="5">
+        <v>45</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="5">
+        <v>29</v>
+      </c>
+      <c r="F74" s="5">
+        <v>37</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="5">
+        <v>19</v>
+      </c>
+      <c r="F75" s="5">
+        <v>28</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5">
+        <v>18</v>
+      </c>
+      <c r="G76" s="5">
+        <v>8</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5">
+        <v>91</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5">
+        <v>76</v>
+      </c>
+      <c r="F78" s="5">
+        <v>83</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="5">
+        <v>52</v>
+      </c>
+      <c r="F79" s="5">
+        <v>64</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="5">
+        <v>29</v>
+      </c>
+      <c r="F80" s="5">
+        <v>41</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="5">
+        <v>101</v>
+      </c>
+      <c r="F82" s="5">
+        <v>110</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="5">
+        <v>84</v>
+      </c>
+      <c r="F83" s="5">
+        <v>90</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="5">
+        <v>65</v>
+      </c>
+      <c r="F84" s="5">
+        <v>75</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5">
+        <v>42</v>
+      </c>
+      <c r="F85" s="5">
+        <v>51</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="5">
+        <v>11</v>
+      </c>
+      <c r="F86" s="5">
+        <v>19</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="5">
+        <v>20</v>
+      </c>
+      <c r="F87" s="5">
+        <v>28</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="5">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5">
+        <v>25</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="5">
+        <v>26</v>
+      </c>
+      <c r="F89" s="5">
+        <v>34</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="5">
+        <v>35</v>
+      </c>
+      <c r="F90" s="5">
+        <v>43</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>29</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="5">
+        <v>30</v>
+      </c>
+      <c r="F92" s="5">
+        <v>48</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>21</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="5">
+        <v>22</v>
+      </c>
+      <c r="F94" s="5">
+        <v>45</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>